--- a/cypress/fixtures/user.xlsx
+++ b/cypress/fixtures/user.xlsx
@@ -415,24 +415,24 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Kristy Haley</v>
+        <v>Kendra Rempel-Swaniawski</v>
       </c>
       <c r="B2">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="C2" t="str">
-        <v>Nadia.Abshire@yahoo.com</v>
+        <v>Edgar35@yahoo.com</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Sally Skiles</v>
+        <v>Ernestine Gulgowski</v>
       </c>
       <c r="B3">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C3" t="str">
-        <v>Earnest_Strosin41@yahoo.com</v>
+        <v>Mark58@yahoo.com</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/user.xlsx
+++ b/cypress/fixtures/user.xlsx
@@ -415,24 +415,24 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Kendra Rempel-Swaniawski</v>
+        <v>Teresa Rolfson</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C2" t="str">
-        <v>Edgar35@yahoo.com</v>
+        <v>Ansley_Marvin77@hotmail.com</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Ernestine Gulgowski</v>
+        <v>Gregg Hyatt III</v>
       </c>
       <c r="B3">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C3" t="str">
-        <v>Mark58@yahoo.com</v>
+        <v>Marta.Schulist@yahoo.com</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/user.xlsx
+++ b/cypress/fixtures/user.xlsx
@@ -415,24 +415,24 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Teresa Rolfson</v>
+        <v>Eunice Wyman</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C2" t="str">
-        <v>Ansley_Marvin77@hotmail.com</v>
+        <v>Samantha_Cummerata@hotmail.com</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Gregg Hyatt III</v>
+        <v>Valerie O'Kon II</v>
       </c>
       <c r="B3">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C3" t="str">
-        <v>Marta.Schulist@yahoo.com</v>
+        <v>Ransom_Mayer@gmail.com</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/user.xlsx
+++ b/cypress/fixtures/user.xlsx
@@ -415,24 +415,24 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Eunice Wyman</v>
+        <v>Tom Nicolas DVM</v>
       </c>
       <c r="B2">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C2" t="str">
-        <v>Samantha_Cummerata@hotmail.com</v>
+        <v>Jaleel.Dibbert@gmail.com</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Valerie O'Kon II</v>
+        <v>Marion Sauer</v>
       </c>
       <c r="B3">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C3" t="str">
-        <v>Ransom_Mayer@gmail.com</v>
+        <v>Miguel_Champlin16@gmail.com</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/user.xlsx
+++ b/cypress/fixtures/user.xlsx
@@ -415,24 +415,24 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Tom Nicolas DVM</v>
+        <v>Ms. Angela Krajcik</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="C2" t="str">
-        <v>Jaleel.Dibbert@gmail.com</v>
+        <v>Ulises85@hotmail.com</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Marion Sauer</v>
+        <v>Randall Parker</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C3" t="str">
-        <v>Miguel_Champlin16@gmail.com</v>
+        <v>Dangelo_Bayer@yahoo.com</v>
       </c>
     </row>
   </sheetData>
